--- a/DataBackups/5.xlsx
+++ b/DataBackups/5.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,14 +481,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -577,14 +577,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -647,14 +647,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -673,14 +673,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -689,24 +689,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Loose Gooses</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -769,14 +769,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -795,14 +795,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -811,24 +811,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Loose Gooses</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -837,24 +837,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
